--- a/project/supplier_management/data/data_of_sample.xlsx
+++ b/project/supplier_management/data/data_of_sample.xlsx
@@ -82,7 +82,7 @@
   <si>
     <r>
       <t>{
- "code": 200,
+ "code": 400,
  "msg": "",
  "data": {
   "1": [
@@ -5329,7 +5329,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelRow="4"/>

--- a/project/supplier_management/data/data_of_sample.xlsx
+++ b/project/supplier_management/data/data_of_sample.xlsx
@@ -81,6 +81,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>{
  "code": 400,
  "msg": "",
@@ -223,8 +229,8 @@
   </si>
   <si>
     <t>{
-   "request_type": "get",
-   "data_type": "json"
+   "request_method": "get",
+      "data_type": None
 }</t>
   </si>
   <si>
@@ -506,7 +512,7 @@
   </si>
   <si>
     <t>{
-   "request_type": "post",
+   "request_method": "post",
    "data_type": "json"
 }</t>
   </si>
@@ -4181,10 +4187,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -4228,7 +4234,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4241,8 +4247,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4256,11 +4271,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4271,9 +4286,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4282,30 +4296,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4333,24 +4323,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4368,6 +4350,30 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -4398,7 +4404,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4410,175 +4578,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4622,22 +4628,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4657,40 +4658,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -4719,16 +4701,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4737,133 +4743,133 @@
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5329,7 +5335,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N3" sqref="N3"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelRow="4"/>
@@ -5477,11 +5483,11 @@
     <mergeCell ref="A5:L5"/>
   </mergeCells>
   <dataValidations count="7">
-    <dataValidation type="list" showErrorMessage="1" errorTitle="输入有误" error="您输入的值不在下拉框列表内。" sqref="L2 L3">
-      <formula1>",待评审,正常,被阻塞,研究中"</formula1>
-    </dataValidation>
     <dataValidation type="list" showErrorMessage="1" errorTitle="输入有误" error="您输入的值不在下拉框列表内。" sqref="A2 A3">
       <formula1>系统数据!$E$1:$E$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" showErrorMessage="1" errorTitle="输入有误" error="您输入的值不在下拉框列表内。" sqref="J2 J3">
+      <formula1>"功能测试,性能测试,配置相关,安装部署,安全相关,接口测试,其他"</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" errorTitle="输入有误" error="您输入的值不在下拉框列表内。" sqref="B2 B3">
       <formula1>系统数据!$A$1:$A$243</formula1>
@@ -5489,14 +5495,14 @@
     <dataValidation type="list" showErrorMessage="1" errorTitle="输入有误" error="您输入的值不在下拉框列表内。" sqref="C2 C3">
       <formula1>INDIRECT(VLOOKUP(B2,系统数据!$W$1:$X$243,2,0))</formula1>
     </dataValidation>
-    <dataValidation type="list" showErrorMessage="1" errorTitle="输入有误" error="您输入的值不在下拉框列表内。" sqref="J2 J3">
-      <formula1>"功能测试,性能测试,配置相关,安装部署,安全相关,接口测试,其他"</formula1>
+    <dataValidation type="list" showErrorMessage="1" errorTitle="输入有误" error="您输入的值不在下拉框列表内。" sqref="K2 K3">
+      <formula1>"单元测试阶段,功能测试阶段,集成测试阶段,系统测试阶段,冒烟测试阶段,版本验证阶段"</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" errorTitle="输入有误" error="您输入的值不在下拉框列表内。" sqref="I2 I3">
       <formula1>",3,1,2,4"</formula1>
     </dataValidation>
-    <dataValidation type="list" showErrorMessage="1" errorTitle="输入有误" error="您输入的值不在下拉框列表内。" sqref="K2 K3">
-      <formula1>"单元测试阶段,功能测试阶段,集成测试阶段,系统测试阶段,冒烟测试阶段,版本验证阶段"</formula1>
+    <dataValidation type="list" showErrorMessage="1" errorTitle="输入有误" error="您输入的值不在下拉框列表内。" sqref="L2 L3">
+      <formula1>",待评审,正常,被阻塞,研究中"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
